--- a/second_ed/data/customer.xlsx
+++ b/second_ed/data/customer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11900"/>
+    <workbookView windowWidth="17940" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>customer_id</t>
   </si>
@@ -22,52 +22,13 @@
     <t>record_id</t>
   </si>
   <si>
-    <t>customer_name</t>
+    <t>validation_state</t>
   </si>
   <si>
-    <t>customer_gender</t>
+    <t>1</t>
   </si>
   <si>
-    <t>customer_birth</t>
-  </si>
-  <si>
-    <t>customer_phone</t>
-  </si>
-  <si>
-    <t>customer_password</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>123-456-7890</t>
-  </si>
-  <si>
-    <t>password123</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>987-654-3210</t>
-  </si>
-  <si>
-    <t>abc123</t>
-  </si>
-  <si>
-    <t>David Lee</t>
-  </si>
-  <si>
-    <t>555-555-5555</t>
-  </si>
-  <si>
-    <t>qwerty</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -81,7 +42,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +53,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -442,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -457,6 +411,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -566,156 +533,165 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1063,13 +1039,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.6153846153846" customWidth="1"/>
     <col min="2" max="2" width="9.92307692307692" customWidth="1"/>
@@ -1080,97 +1056,65 @@
     <col min="7" max="7" width="19.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>33008</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2">
-        <v>32406</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>35043</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+      <c r="E4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
